--- a/manisha.xlsx
+++ b/manisha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15150" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t xml:space="preserve">Basic Math Function </t>
   </si>
@@ -130,6 +130,102 @@
   </si>
   <si>
     <t>Countif</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if else /nested if </t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suplmentry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1&gt; </t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage </t>
+  </si>
+  <si>
+    <t>If(=60 "First Division)" (If 50-59="Second Division)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>100 KA 10 %</t>
+  </si>
+  <si>
+    <t>100*0.10</t>
+  </si>
+  <si>
+    <t>100*10/100</t>
+  </si>
+  <si>
+    <t>100/1 * 10/100</t>
+  </si>
+  <si>
+    <t>100/1 * .10</t>
   </si>
 </sst>
 </file>
@@ -165,11 +261,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,20 +562,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -487,21 +585,35 @@
       <c r="C3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <f>100*0.1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B4">
         <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="F4">
+        <f>154333*0.1</f>
+        <v>15433.300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -512,14 +624,18 @@
       <c r="C6" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="E6">
+        <f>100*10/100</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -530,8 +646,14 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -542,8 +664,11 @@
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -553,10 +678,10 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -565,7 +690,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -574,7 +699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -583,7 +708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -592,7 +717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -748,7 +873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -757,23 +882,23 @@
         <v>Value is smaler</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B35">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B36">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B38" t="str">
         <f>IF(B35&gt;B36,"GT","SM")</f>
         <v>GT</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -790,7 +915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -811,8 +936,16 @@
         <f>IF(E41=0,"pass","Faill")</f>
         <v>Faill</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="G41">
+        <f>SUM(B41:D41)</f>
+        <v>111</v>
+      </c>
+      <c r="H41">
+        <f>G41*100/300</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -826,15 +959,23 @@
         <v>45</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:E45" si="1">COUNTIF(B42:D42,"&lt;30")</f>
+        <f t="shared" ref="E42:E47" si="1">COUNTIF(B42:D42,"&lt;30")</f>
         <v>0</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" ref="F42:F45" si="2">IF(E42=0,"pass","Faill")</f>
+        <f t="shared" ref="F42:F47" si="2">IF(E42=0,"pass","Faill")</f>
         <v>pass</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="G42">
+        <f t="shared" ref="G42:G47" si="3">SUM(B42:D42)</f>
+        <v>133</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42:H47" si="4">G42*100/300</f>
+        <v>44.333333333333336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -855,8 +996,16 @@
         <f t="shared" si="2"/>
         <v>pass</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>47.333333333333336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -877,8 +1026,16 @@
         <f t="shared" si="2"/>
         <v>Faill</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>51.666666666666664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -898,6 +1055,84 @@
       <c r="F45" t="str">
         <f t="shared" si="2"/>
         <v>pass</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>55.333333333333336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46">
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <v>34</v>
+      </c>
+      <c r="D46">
+        <v>22</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="2"/>
+        <v>Faill</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>37.333333333333336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="2"/>
+        <v>Faill</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>28.666666666666668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A49" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -907,24 +1142,457 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>54</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIF(B4:D4,"&lt;30")</f>
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(E4=0,"pass",IF(E4=1,"suplmentry","fail"))</f>
+        <v>suplmentry</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E10" si="0">COUNTIF(B5:D5,"&lt;30")</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G10" si="1">IF(E5=0,"pass",IF(E5=1,"suplmentry","fail"))</f>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>76</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>suplmentry</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>60</v>
+      </c>
+      <c r="G17">
+        <f>SUM(B17:F17)*100/500</f>
+        <v>61.2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G21" si="2">SUM(B18:F18)*100/500</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>6000</v>
+      </c>
+      <c r="C2" s="3">
+        <f>IF(B2&gt;5000,IF(B2&lt;10000,B2*0.1,B2*0.15),B2*0.15)</f>
+        <v>600</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>7000</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C6" si="0">IF(B3&gt;5000,IF(B3&lt;10000,B3*0.1,B3*0.15),B3*0.15)</f>
+        <v>700</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>14000</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>12000</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/manisha.xlsx
+++ b/manisha.xlsx
@@ -2,21 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15150" windowHeight="7800"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15150" windowHeight="7800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
   <si>
     <t xml:space="preserve">Basic Math Function </t>
   </si>
@@ -226,6 +228,87 @@
   </si>
   <si>
     <t>100/1 * .10</t>
+  </si>
+  <si>
+    <t>pname</t>
+  </si>
+  <si>
+    <t>Qut</t>
+  </si>
+  <si>
+    <t>price Per pice</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>total pay</t>
+  </si>
+  <si>
+    <t>sell amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Ndelhi</t>
+  </si>
+  <si>
+    <t>Sdelhi</t>
+  </si>
+  <si>
+    <t>Edelhi</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Gurugram</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>panme</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Fnction </t>
+  </si>
+  <si>
+    <t>Curent date and time</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>Curent date</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>minut</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>last 100 day before  which date</t>
+  </si>
+  <si>
+    <t>ago 100 day before  which date</t>
+  </si>
+  <si>
+    <t>Diffrence b/w two date</t>
+  </si>
+  <si>
+    <t>edate()</t>
   </si>
 </sst>
 </file>
@@ -261,13 +344,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,10 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1142,6 +1231,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1504,6 +1594,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1595,4 +1686,429 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>234</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>255</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">B4*C4</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7">
+        <f>SUM(D3:D5)</f>
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <f>SUMPRODUCT(B3:B5,C3:C5)</f>
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="L13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>3000</v>
+      </c>
+      <c r="L20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <v>2500</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21">
+        <f ca="1">SUMIF(A14:C22,L21,C14:C22)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <v>1300</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22">
+        <f ca="1">SUMIF(A14:C22,F22,C14:C22)</f>
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24">
+        <f>SUMIFS(C14:C22,A14:A22,F24,B14:B22,G24)</f>
+        <v>7500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21 L23">
+      <formula1>$L$11:$L$13</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="5">
+        <f ca="1">NOW()</f>
+        <v>43699.705550694445</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43699</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <f ca="1">HOUR(B3)</f>
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <f ca="1">HOUR(NOW())</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <f ca="1">MINUTE(NOW())</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <f ca="1">SECOND(NOW())</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="6">
+        <f ca="1">TODAY()-100</f>
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="6">
+        <f ca="1">TODAY()+100</f>
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="6">
+        <v>31969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="6">
+        <f ca="1">TODAY()</f>
+        <v>43699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18">
+        <f ca="1">DATEDIF(B15,B17,"y")</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19">
+        <f ca="1">DATEDIF(B15,B17,"m")</f>
+        <v>385</v>
+      </c>
+      <c r="E19">
+        <f ca="1">YEAR(B12)</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20">
+        <f ca="1">DATEDIF(B15,B17,"d")</f>
+        <v>11730</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="6">
+        <f>EDATE(B15,100)</f>
+        <v>35014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23">
+        <f ca="1">DAY(B12)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="6">
+        <f>EOMONTH(B15,2)</f>
+        <v>32050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25">
+        <f ca="1">WEEKDAY(B17)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="6">
+        <f ca="1">WORKDAY(B17,25,1)</f>
+        <v>43734</v>
+      </c>
+      <c r="C26" s="6">
+        <f>WORKDAY(B15,20,1)</f>
+        <v>31996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/manisha.xlsx
+++ b/manisha.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15150" windowHeight="7800" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15150" windowHeight="7800" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
   <si>
     <t xml:space="preserve">Basic Math Function </t>
   </si>
@@ -309,19 +312,56 @@
   </si>
   <si>
     <t>edate()</t>
+  </si>
+  <si>
+    <t>ome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar </t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marks </t>
+  </si>
+  <si>
+    <t>lookup</t>
+  </si>
+  <si>
+    <t>Vlookup</t>
+  </si>
+  <si>
+    <t>Verticle lookup</t>
+  </si>
+  <si>
+    <t>Hlookup</t>
+  </si>
+  <si>
+    <t>Horizantal lookup</t>
+  </si>
+  <si>
+    <t>vlookup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -341,32 +381,1201 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:axId val="144558336"/>
+        <c:axId val="146939904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="144558336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146939904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="146939904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144558336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Salary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="147088896"/>
+        <c:axId val="147090432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="147088896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147090432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="147090432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147088896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet6!$A$3:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Ndelhi</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sdelhi</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Edelhi</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Ndelhi</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Sdelhi</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Edelhi</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Noida</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Gurugram</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Patna</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>lux</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>pen</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>A4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>lux</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>pen</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>A4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>lux</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>pen</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>A4</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="93892992"/>
+        <c:axId val="93894528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="93892992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93894528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93894528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93892992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Left Arrow 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="142875"/>
+          <a:ext cx="1476375" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Go TO Sheet6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>378333</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>170306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Right Arrow 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="571499"/>
+          <a:ext cx="1540383" cy="437007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>GO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> TO SHEET 6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="image-250nw-452800699.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="190500"/>
+          <a:ext cx="1219200" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Lightning Bolt 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="409575"/>
+          <a:ext cx="790575" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="lightningBolt">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flowchart: Punched Tape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="485775"/>
+          <a:ext cx="1457325" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPunchedTape">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Right Arrow 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8524875" y="171450"/>
+          <a:ext cx="1895475" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Back To Home</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Left Arrow 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="1123950"/>
+          <a:ext cx="1952625" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Go TO Google</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>641061</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162464</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12928311" y="2067464"/>
+          <a:ext cx="184731" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:tint val="85000"/>
+                <a:satMod val="155000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>145755</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="927177"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12994980" y="2072640"/>
+          <a:ext cx="184731" cy="927177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="flat" dir="tl">
+              <a:rot lat="0" lon="0" rev="6600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d extrusionH="25400" contourW="8890">
+            <a:bevelT w="38100" h="31750"/>
+            <a:contourClr>
+              <a:schemeClr val="accent2">
+                <a:shade val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+            <a:ln w="11430"/>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="70000"/>
+                    <a:satMod val="245000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="75000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="90000"/>
+                    <a:shade val="60000"/>
+                    <a:satMod val="240000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="100000"/>
+                    <a:shade val="50000"/>
+                    <a:satMod val="240000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="39000" dir="5460000" algn="tl">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Name "/>
+    <tableColumn id="2" name="Salary"/>
+    <tableColumn id="3" name="HRA" dataDxfId="0">
+      <calculatedColumnFormula>IF(B2&gt;5000,IF(B2&lt;10000,B2*0.1,B2*0.15),B2*0.15)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="DA"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="ome"/>
+    <tableColumn id="2" name="Location "/>
+    <tableColumn id="3" name="sell amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Apex">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -406,18 +1615,56 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Apex">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Lucida Sans"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Grek" typeface="Arial"/>
+        <a:font script="Cyrl" typeface="Arial"/>
+        <a:font script="Jpan" typeface="HG丸ｺﾞｼｯｸM-PRO"/>
+        <a:font script="Hang" typeface="휴먼옛체"/>
+        <a:font script="Hans" typeface="黑体"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Levenim MT"/>
+        <a:font script="Thai" typeface="FreesiaUPC"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Book Antiqua"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Grek" typeface="Times New Roman"/>
+        <a:font script="Cyrl" typeface="Times New Roman"/>
+        <a:font script="Jpan" typeface="HG明朝B"/>
+        <a:font script="Hang" typeface="돋움"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="David"/>
+        <a:font script="Thai" typeface="EucrosiaUPC"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -440,100 +1687,75 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Apex">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="20000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="9000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="70000"/>
+                <a:satMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:path path="circle">
+            <a:fillToRect l="-15000" t="-15000" r="115000" b="115000"/>
+          </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:shade val="60000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="33000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="86500"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="46750">
+              <a:schemeClr val="phClr">
+                <a:tint val="71000"/>
+                <a:satMod val="112000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="53000">
+              <a:schemeClr val="phClr">
+                <a:tint val="71000"/>
+                <a:satMod val="112000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="68000">
+              <a:schemeClr val="phClr">
+                <a:tint val="86000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:shade val="60000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="8350000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:shade val="48000"/>
+              <a:satMod val="110000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -554,16 +1776,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="130000" dist="101600" dir="2700000" algn="tl" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -572,22 +1785,31 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="190500" dist="228600" dir="2700000" sy="90000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="25500"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="190500" dist="228600" dir="2700000" sy="90000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="25500"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
           <a:scene3d>
-            <a:camera prst="orthographicFront">
+            <a:camera prst="orthographicFront" fov="0">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig rig="soft" dir="tl">
+              <a:rot lat="0" lon="0" rev="20100000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="50800" h="50800"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -599,47 +1821,38 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="180000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="45000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect r="100000" b="100000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
+                <a:shade val="3000"/>
+                <a:satMod val="110000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
+                <a:tint val="60000"/>
+                <a:satMod val="425000"/>
               </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
+            </a:duotone>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -653,11 +1866,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
       <c r="A1" t="s">
@@ -1226,6 +2437,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1238,7 +2450,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -1598,10 +2810,10 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1685,6 +2897,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1693,10 +2909,10 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A12" sqref="A12:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -1755,11 +2971,11 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7">
         <f>SUM(D3:D5)</f>
         <v>4478</v>
@@ -1944,16 +3160,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1965,9 +3181,9 @@
       <c r="A3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f ca="1">NOW()</f>
-        <v>43699.705550694445</v>
+        <v>43700.707962615743</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -1977,9 +3193,9 @@
       <c r="A5" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f ca="1">TODAY()</f>
-        <v>43699</v>
+        <v>43700</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
@@ -2004,7 +3220,7 @@
       </c>
       <c r="B8">
         <f ca="1">MINUTE(NOW())</f>
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2013,36 +3229,36 @@
       </c>
       <c r="B9">
         <f ca="1">SECOND(NOW())</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f ca="1">TODAY()-100</f>
-        <v>43599</v>
+        <v>43600</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f ca="1">TODAY()+100</f>
-        <v>43799</v>
+        <v>43800</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>31969</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f ca="1">TODAY()</f>
-        <v>43699</v>
+        <v>43700</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2067,14 +3283,14 @@
     <row r="20" spans="1:5">
       <c r="B20">
         <f ca="1">DATEDIF(B15,B17,"d")</f>
-        <v>11730</v>
+        <v>11731</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f>EDATE(B15,100)</f>
         <v>35014</v>
       </c>
@@ -2082,11 +3298,11 @@
     <row r="23" spans="1:5">
       <c r="B23">
         <f ca="1">DAY(B12)</f>
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <f>EOMONTH(B15,2)</f>
         <v>32050</v>
       </c>
@@ -2094,21 +3310,334 @@
     <row r="25" spans="1:5">
       <c r="B25">
         <f ca="1">WEEKDAY(B17)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <f ca="1">WORKDAY(B17,25,1)</f>
-        <v>43734</v>
-      </c>
-      <c r="C26" s="6">
+        <v>43735</v>
+      </c>
+      <c r="C26" s="5">
         <f>WORKDAY(B15,20,1)</f>
         <v>31996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="5">
+        <f>DATEVALUE("1-jan-2019")</f>
+        <v>43466</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="P16" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P16" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;CManisha Excel sheet</oddHeader>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.5" right="0.5" top="2" bottom="1" header="0.8" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <oleObject progId="Paint.Picture" shapeId="2049" r:id="rId3"/>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <f>LOOKUP(B9,A2:B5,B2:B5)</f>
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(B13,A2:B5,2,FALSE)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <f>HLOOKUP(B21,C17:F18,2,FALSE)</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>